--- a/Mac-Lenin2/Danh sách Kinh Tế Chính Trị.xlsx
+++ b/Mac-Lenin2/Danh sách Kinh Tế Chính Trị.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>STT</t>
   </si>
@@ -40,12 +40,6 @@
     <t>DHH170370</t>
   </si>
   <si>
-    <t>Lê Cao Ngọc Lể</t>
-  </si>
-  <si>
-    <t>DPM175034</t>
-  </si>
-  <si>
     <t xml:space="preserve">DH18PM </t>
   </si>
   <si>
@@ -112,15 +106,9 @@
     <t xml:space="preserve">Trần Minh Trí </t>
   </si>
   <si>
-    <t>Cav176005</t>
-  </si>
-  <si>
     <t xml:space="preserve">Võ Văn Dĩ </t>
   </si>
   <si>
-    <t>dbt173067</t>
-  </si>
-  <si>
     <t>DH19TA2</t>
   </si>
   <si>
@@ -136,15 +124,9 @@
     <t xml:space="preserve">DQM184553 </t>
   </si>
   <si>
-    <t xml:space="preserve">Trương Nhật Huy </t>
-  </si>
-  <si>
     <t>DH18TC</t>
   </si>
   <si>
-    <t>DTC171922</t>
-  </si>
-  <si>
     <t>DTC171949</t>
   </si>
   <si>
@@ -170,6 +152,51 @@
   </si>
   <si>
     <t>DH19PM</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Giàu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPM175314 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTH195552 </t>
+  </si>
+  <si>
+    <t>Lê Thị Thảo Linh</t>
+  </si>
+  <si>
+    <t>Hồ Nguyễn Hà Thư</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPM175320 </t>
+  </si>
+  <si>
+    <t>DH20TH2 </t>
+  </si>
+  <si>
+    <t>DH18BT1</t>
+  </si>
+  <si>
+    <t>DH20TA1 </t>
+  </si>
+  <si>
+    <t>DH19QM </t>
+  </si>
+  <si>
+    <t>DBT173067</t>
+  </si>
+  <si>
+    <t>CAV176005</t>
+  </si>
+  <si>
+    <t>Trần Minh Bảo Ngân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPM175044 </t>
+  </si>
+  <si>
+    <t>DH18PM</t>
   </si>
 </sst>
 </file>
@@ -521,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -567,13 +594,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -587,7 +614,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -596,13 +623,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -610,13 +637,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -624,13 +651,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -638,13 +665,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -652,13 +679,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -667,37 +694,41 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -705,13 +736,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -719,49 +750,55 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -769,10 +806,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>41</v>
@@ -783,13 +820,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -798,13 +835,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -815,11 +852,43 @@
         <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="C22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mac-Lenin2/Danh sách Kinh Tế Chính Trị.xlsx
+++ b/Mac-Lenin2/Danh sách Kinh Tế Chính Trị.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>STT</t>
   </si>
@@ -197,12 +197,18 @@
   </si>
   <si>
     <t>DH18PM</t>
+  </si>
+  <si>
+    <t>Lê Cao Ngọc Lể</t>
+  </si>
+  <si>
+    <t>DPM175034</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -548,20 +554,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -589,7 +595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -603,7 +609,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -618,7 +624,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -632,7 +638,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -646,7 +652,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -660,7 +666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -674,7 +680,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -689,7 +695,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -703,7 +709,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -717,7 +723,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -731,7 +737,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -745,7 +751,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -759,7 +765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -773,7 +779,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -787,7 +793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -801,7 +807,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -815,7 +821,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -830,7 +836,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -844,7 +850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -858,7 +864,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -873,7 +879,7 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -886,9 +892,21 @@
       <c r="D23" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
